--- a/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>124,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>159,05%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>221,74%</t>
+          <t>351,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>366,68%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 13,01</t>
+          <t>-3,73; 28,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 10,47</t>
+          <t>-8,58; 8,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 11,37</t>
+          <t>-0,61; 17,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 13,15</t>
+          <t>2,76; 22,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 121,46</t>
+          <t>-31,24; 616,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 1520,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,49; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>126,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 12,26</t>
+          <t>3,11; 20,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 6,2</t>
+          <t>-3,68; 10,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 7,71</t>
+          <t>0,3; 12,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,98</t>
+          <t>-4,47; 7,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 103,05</t>
+          <t>17,5; 222,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 81,28</t>
+          <t>-32,28; 192,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 221,71</t>
+          <t>-6,28; 414,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 192,82</t>
+          <t>-49,11; 246,95</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,32 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>122,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,77%</t>
+          <t>22,2%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 12,8</t>
+          <t>1,46; 19,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,54</t>
+          <t>-0,69; 9,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,78</t>
+          <t>-2,94; 8,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,57</t>
+          <t>-5,25; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 105,93</t>
+          <t>6,66; 264,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 269,78</t>
+          <t>-21,71; 718,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 193,38</t>
+          <t>-41,9; 311,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 272,15</t>
+          <t>-49,98; 285,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 79,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 110,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 160,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 199,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>89,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>111,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 17,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 7,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 9,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 6,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37,67; 175,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 172,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 300,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 192,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>124,35%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>351,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>13.11530740746146</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.054447863085405</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.98905592824177</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.047629062283521</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.243481355935772</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2317674461817371</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.162234342306349</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +658,158 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 28,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 8,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 17,13</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 22,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-31,24; 616,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.72658060479423</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.039093701370751</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.028174529088653</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.502715182655954</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3123732233599541</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.30959437479498</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.703626005266512</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.78154137606308</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.72037640531952</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6.162565187471819</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>86,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>126,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 20,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 10,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 12,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 7,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>17,5; 222,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,28; 192,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 414,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,11; 246,95</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.79299691697145</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.010681494829246</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.989245206792675</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.860377817393331</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8622909156406211</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3683540593037269</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.415496223928108</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3259824006371773</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>85,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>122,8%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>63,52%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.108085781288888</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.017592032461196</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.8858547306595058</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.199268674624725</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1750022405758662</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3327703455294906</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01950504115019607</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4969941697951354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 19,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 9,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 8,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 7,75</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 264,21</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,71; 718,57</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,9; 311,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-49,98; 285,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.11537154355693</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.766306149614715</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.57243786624291</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.308183112341067</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.228200026307992</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.947256823126847</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.773585927388272</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.823247938588073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +817,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.37720222070071</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.363194561077279</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.28276064709869</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.391869239690731</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.8522840128312869</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.364571630807678</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.637407083606525</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2181612480769224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.460167248902184</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2848845346384946</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.801627150684866</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.101992903634192</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.06657097310668793</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2203831257856412</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4137957726821977</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5019172630424279</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.54694314652838</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.504724336311281</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.711615251335569</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.653051237409518</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.642060689758075</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>7.342620379106287</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.057925804692711</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.878559608683198</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>89,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>52,71%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>111,67%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 17,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 7,46</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 9,44</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 6,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>37,67; 175,51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 172,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 300,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 192,27</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.3358382650957</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.203854483039242</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.903417559652695</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.573034950226276</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.8939854815259698</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5569297963546606</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.178045183400672</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4998565769290012</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.778688386862547</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2826397092525935</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.785536470895275</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.49195258919679</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3767156653455012</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.08160134751985364</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1821407146321321</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.232796025970899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.05150331530485</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.20835824802914</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.27572146104524</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.21328597021949</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.755106058613181</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.782200182772596</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.281721735532679</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.882087604222251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
